--- a/console/Networking/iaas-network/pipMixinsXlsx/pip_create.xlsx
+++ b/console/Networking/iaas-network/pipMixinsXlsx/pip_create.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -780,18 +785,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'您尚未实名认证，购买公网IP须实名认证'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>create_buyNowBtn</t>
     </r>
   </si>
@@ -1140,18 +1133,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>For the users purchasing EIP of fixed bandwidth type, billing by bandwidth cap will be designed according to their selected public network with the unit of Mbps, which suits the business scene with more stable network situation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>By Traffic</t>
     </r>
   </si>
@@ -1164,42 +1145,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>For the users purchasing EIP of traffic usage type, traffic billing will be designed according to their actual usage with the unit of GB, which suits the business scene with more fluctuant network situation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IP provider</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If higher access speed is needed, it is recommended to select and use BGP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Bandwidth Cap</t>
     </r>
   </si>
@@ -1404,18 +1349,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'You haven’t conduct the real-name verification, which is a must for purchasing EIP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Buy Now</t>
     </r>
   </si>
@@ -1428,18 +1361,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'The quota of resources of the chosen region is full. Please switch the region or open ticket and increase quota.'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Calculating…'</t>
     </r>
   </si>
@@ -1464,30 +1385,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>You haven’t conduct the real-name verification, which is a must for purchasing EIP,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The quota of resources of the selected region is full, please switch the region or</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Calculating…'</t>
     </r>
   </si>
@@ -1526,13 +1423,262 @@
       </rPr>
       <t>'/month'</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the users purchasing EIP of fixed bandwidth type, billing by bandwidth cap will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to their selected public network with the unit of Mbps, which suits the business scene with more stable network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the users purchasing EIP of traffic usage type, traffic billing will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to their actual usage with the unit of GB, which suits the business scene with more fluctuant network </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISP Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If higher access speed is needed, it is recommended to select  BGP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You haven’t conduct the real-name verification, which is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prerequisite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for purchasing EIP,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You haven’t conduct the real-name verification, which is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prerequisite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for purchasing EIP'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您尚未实名认证，购买公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>须实名认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The quota of resources of the selected region </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has reached the limitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, please switch the region or open ticket and increase quota'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The quota of resources of the selected region </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has reached the limitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, please switch the region or</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1542,6 +1688,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1568,11 +1729,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1911,17 +2082,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1929,10 +2100,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1940,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1951,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1962,10 +2133,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1973,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1984,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1995,10 +2166,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2006,10 +2177,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2017,21 +2188,21 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2039,43 +2210,43 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2083,10 +2254,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2094,10 +2265,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2105,10 +2276,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2116,10 +2287,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2127,10 +2298,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2138,10 +2309,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2149,10 +2320,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2160,10 +2331,10 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2171,10 +2342,10 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2182,10 +2353,10 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2193,10 +2364,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2204,10 +2375,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2215,10 +2386,10 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2226,10 +2397,10 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2237,10 +2408,10 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2248,10 +2419,10 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2259,135 +2430,136 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B42" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B31 A33:B42 A32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>